--- a/ElasticNet/results/shap_summary_sorted_CN.xlsx
+++ b/ElasticNet/results/shap_summary_sorted_CN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,61 +448,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAF_ORB_left</t>
+          <t>Alpha2_canon_RPD_CING_right</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.6504896345368</v>
+        <v>1938.632281673864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TF_INS_left</t>
+          <t>Low_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.11320784331835</v>
+        <v>1316.671619330867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_HPC_left</t>
+          <t>High_subj_spec_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.60286118790142</v>
+        <v>1138.734200057183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TF_IFG_right</t>
+          <t>Alpha2_canon_RPD_CING_left</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.8052775231542</v>
+        <v>1076.096600161823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IAF_INS_right</t>
+          <t>Low_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.64414431904885</v>
+        <v>1017.224679067888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_right</t>
+          <t>High_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.19150371522242</v>
+        <v>797.6649528262432</v>
       </c>
     </row>
     <row r="8">
@@ -512,137 +512,137 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.68396818121522</v>
+        <v>684.126065793842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IAF_HPC_left</t>
+          <t>Alpha2_canon_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.61202465254968</v>
+        <v>680.4469899058216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TF_HPC_left</t>
+          <t>Low_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.3957949499415</v>
+        <v>666.7434297095316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_left</t>
+          <t>Alpha2_canon_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.11249857661052</v>
+        <v>601.3767466727055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_left</t>
+          <t>Low_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.10640113169548</v>
+        <v>596.8821791364068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IAF_INS_left</t>
+          <t>High_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.58400008549276</v>
+        <v>537.7923169304756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_left</t>
+          <t>Alpha2_canon_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.66296794588037</v>
+        <v>528.1138071042742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IAF_HPC_right</t>
+          <t>IAF_ORB_left</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.6060115807324</v>
+        <v>509.9356312672673</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_left</t>
+          <t>Low_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.31347948324894</v>
+        <v>502.093773707292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TF_ORB_right</t>
+          <t>Alpha2_canon_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.35287356073457</v>
+        <v>429.5806529106109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_left</t>
+          <t>High_subj_spec_EPP_CING_left</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.46470605122888</v>
+        <v>418.7331118354775</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_left</t>
+          <t>IAF_OCC_right</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.45724415693017</v>
+        <v>354.9298474668902</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TF_SFG_right</t>
+          <t>IAF_INS_left</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.76157140333445</v>
+        <v>300.9204721021842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_right</t>
+          <t>TF_IFG_right</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.27108901573451</v>
+        <v>284.9552617805075</v>
       </c>
     </row>
     <row r="22">
@@ -652,517 +652,397 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.26605837612551</v>
+        <v>284.1537538358475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_right</t>
+          <t>High_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.60683235981567</v>
+        <v>255.0967314785917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_right</t>
+          <t>IAF_INS_right</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.60431728609347</v>
+        <v>237.4327577771083</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_right</t>
+          <t>IAF_ORB_right</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.22022438869562</v>
+        <v>232.0593893821181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_right</t>
+          <t>Alpha2_canon_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.21129525864165</v>
+        <v>224.3112327506504</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_right</t>
+          <t>Low_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.70936445195623</v>
+        <v>218.3278057883041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_left</t>
+          <t>Low_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.4786563968669</v>
+        <v>216.2011975216082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_PARIET_right</t>
+          <t>Alpha2_canon_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.31495864498515</v>
+        <v>205.7514271266766</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_right</t>
+          <t>Alpha2_canon_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.51879386026761</v>
+        <v>200.5372896184171</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_left</t>
+          <t>High_subj_spec_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.4229892638695</v>
+        <v>194.8486820974616</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_right</t>
+          <t>Alpha2_canon_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45.1988157863033</v>
+        <v>188.5220697800758</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_right</t>
+          <t>IAF_SFG_right</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.18906883424772</v>
+        <v>182.4978162090466</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_right</t>
+          <t>Alpha2_canon_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.94974538167889</v>
+        <v>179.7369693496233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_right</t>
+          <t>High_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.9437312058008</v>
+        <v>140.8461568056898</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IAF_OCC_right</t>
+          <t>TF_INS_right</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.48128203648282</v>
+        <v>135.4119594233299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_CING_right</t>
+          <t>IAF_HPC_right</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.63523000077448</v>
+        <v>126.9626188443236</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_right</t>
+          <t>IAF_IFG_right</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.62529542164028</v>
+        <v>125.5855466722883</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IAF_OCC_left</t>
+          <t>Low_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.11073460956838</v>
+        <v>112.750489279849</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_left</t>
+          <t>High_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.78484703008684</v>
+        <v>112.6663776541914</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IAF_SFG_right</t>
+          <t>IAF_HPC_left</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.78116065509667</v>
+        <v>86.4091132657764</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_left</t>
+          <t>IAF_OCC_left</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.77875347496859</v>
+        <v>83.53671164896105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IAF_IFG_left</t>
+          <t>High_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.75665988100138</v>
+        <v>67.90215786592464</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TF_HPC_right</t>
+          <t>High_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.55573098892596</v>
+        <v>67.25315453419364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TF_SFG_left</t>
+          <t>High_subj_spec_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.25087756143683</v>
+        <v>65.68017872547732</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_OCC_right</t>
+          <t>High_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.63270302852428</v>
+        <v>55.76266130186713</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_OCC_right</t>
+          <t>High_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28.62415098330811</v>
+        <v>55.23883588474653</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IAF_IFG_right</t>
+          <t>TF_ORB_left</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28.00099820587044</v>
+        <v>53.80034426034087</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TF_ORB_left</t>
+          <t>Alpha2_canon_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>27.92747716314539</v>
+        <v>52.32907588801335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IAF_ORB_right</t>
+          <t>Alpha2_canon_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>26.85282627847941</v>
+        <v>48.73709089732669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_left</t>
+          <t>IAF_MFG_left</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>26.82179979590226</v>
+        <v>36.83519026814589</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_left</t>
+          <t>IAF_IFG_left</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>26.81774238893035</v>
+        <v>36.05877840302038</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_left</t>
+          <t>High_subj_spec_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>26.20156808944937</v>
+        <v>35.93700216933203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TF_MFG_right</t>
+          <t>TF_HPC_left</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25.21051563648516</v>
+        <v>33.81548123780947</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_right</t>
+          <t>Low_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>24.34918233013148</v>
+        <v>32.81932904653092</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_left</t>
+          <t>TF_ORB_right</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>23.99836335216373</v>
+        <v>31.20241225541467</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_left</t>
+          <t>IAF_SFG_left</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>23.98897633171213</v>
+        <v>25.53329251950537</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IAF_SFG_left</t>
+          <t>TF_HPC_right</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>22.92655787826579</v>
+        <v>22.99311906104709</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_CING_right</t>
+          <t>High_subj_spec_EPP_CING_right</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>22.25619553344221</v>
+        <v>22.4018997124031</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_OCC_right</t>
+          <t>High_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17.95842853486189</v>
+        <v>20.15948673972359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_left</t>
+          <t>IAF_MFG_right</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16.08333347487615</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>16.07386883768091</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>TF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>12.07289780284271</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>IAF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>10.27847898990038</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_EPP_HPC_right</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>9.666605605823541</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>TF_IFG_left</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>7.750240685075732</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_PARIET_left</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>6.006642126326449</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>5.723615515598628</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TF_INS_right</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>4.507327799151417</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>IAF_MFG_right</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>4.073142913280257</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2.25055029252713</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>High_subj_spec_EPP_OCC_left</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2.090699886662107</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2.085007306011406</v>
+        <v>19.60601705145512</v>
       </c>
     </row>
   </sheetData>
